--- a/itss材料文件/2部门人员名字/人员.xlsx
+++ b/itss材料文件/2部门人员名字/人员.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9180"/>
+    <workbookView windowWidth="22188" windowHeight="9060"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1273,7 +1273,7 @@
   <dimension ref="A1:E10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>

--- a/itss材料文件/2部门人员名字/人员.xlsx
+++ b/itss材料文件/2部门人员名字/人员.xlsx
@@ -4,14 +4,15 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22188" windowHeight="9060"/>
+    <workbookView xWindow="240" yWindow="120" windowWidth="22188" windowHeight="9060" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames/>
+  <calcPr fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -115,35 +116,42 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="12"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
     </font>
     <font>
-      <u/>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u val="single"/>
       <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -151,6 +159,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -159,7 +168,7 @@
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -167,6 +176,7 @@
       <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -175,6 +185,7 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -183,6 +194,7 @@
       <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -190,7 +202,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -198,7 +210,7 @@
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -206,7 +218,7 @@
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -214,14 +226,14 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -229,241 +241,234 @@
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="34">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39998"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFDDEBF7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -474,171 +479,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color indexed="8"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="8"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="0"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="0"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="8"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="8"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -654,7 +494,6 @@
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -663,16 +502,14 @@
       <bottom style="medium">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
+        <color theme="4" tint="0.49998"/>
+      </bottom>
     </border>
     <border>
       <left style="thin">
@@ -687,7 +524,6 @@
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="thin">
@@ -702,7 +538,6 @@
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left style="double">
@@ -717,7 +552,6 @@
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -726,7 +560,6 @@
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
-      <diagonal/>
     </border>
     <border>
       <left/>
@@ -737,281 +570,527 @@
       <bottom style="double">
         <color theme="4"/>
       </bottom>
-      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color indexed="8"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="8"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="0"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="0"/>
+      </bottom>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="8"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="8"/>
+      </bottom>
     </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
+      <protection/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="4" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyProtection="0">
+      <alignment/>
     </xf>
   </cellStyleXfs>
   <cellXfs count="23">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="千位分隔" xfId="1" builtinId="3"/>
-    <cellStyle name="货币" xfId="2" builtinId="4"/>
-    <cellStyle name="百分比" xfId="3" builtinId="5"/>
-    <cellStyle name="千位分隔[0]" xfId="4" builtinId="6"/>
-    <cellStyle name="货币[0]" xfId="5" builtinId="7"/>
-    <cellStyle name="超链接" xfId="6" builtinId="8"/>
-    <cellStyle name="已访问的超链接" xfId="7" builtinId="9"/>
-    <cellStyle name="注释" xfId="8" builtinId="10"/>
-    <cellStyle name="警告文本" xfId="9" builtinId="11"/>
-    <cellStyle name="标题" xfId="10" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="11" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="12" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="13" builtinId="17"/>
-    <cellStyle name="标题 3" xfId="14" builtinId="18"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="输入" xfId="16" builtinId="20"/>
-    <cellStyle name="输出" xfId="17" builtinId="21"/>
-    <cellStyle name="计算" xfId="18" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="19" builtinId="23"/>
-    <cellStyle name="链接单元格" xfId="20" builtinId="24"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="好" xfId="22" builtinId="26"/>
-    <cellStyle name="差" xfId="23" builtinId="27"/>
-    <cellStyle name="适中" xfId="24" builtinId="28"/>
-    <cellStyle name="强调文字颜色 1" xfId="25" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="26" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="27" builtinId="31"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="28" builtinId="32"/>
-    <cellStyle name="强调文字颜色 2" xfId="29" builtinId="33"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="30" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="31" builtinId="35"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="32" builtinId="36"/>
-    <cellStyle name="强调文字颜色 3" xfId="33" builtinId="37"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="34" builtinId="38"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="35" builtinId="39"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="强调文字颜色 4" xfId="37" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="38" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="39" builtinId="43"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="40" builtinId="44"/>
-    <cellStyle name="强调文字颜色 5" xfId="41" builtinId="45"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="42" builtinId="46"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="43" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="44" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="45" builtinId="49"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="46" builtinId="50"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+  <cellStyles count="54">
+    <cellStyle name="Normal" xfId="0"/>
+    <cellStyle name="Percent" xfId="15"/>
+    <cellStyle name="Currency" xfId="16"/>
+    <cellStyle name="Currency [0]" xfId="17"/>
+    <cellStyle name="Comma" xfId="18"/>
+    <cellStyle name="Comma [0]" xfId="19"/>
+    <cellStyle name="千位分隔" xfId="20"/>
+    <cellStyle name="货币" xfId="21"/>
+    <cellStyle name="百分比" xfId="22"/>
+    <cellStyle name="千位分隔[0]" xfId="23"/>
+    <cellStyle name="货币[0]" xfId="24"/>
+    <cellStyle name="超链接" xfId="25"/>
+    <cellStyle name="已访问的超链接" xfId="26"/>
+    <cellStyle name="注释" xfId="27"/>
+    <cellStyle name="警告文本" xfId="28"/>
+    <cellStyle name="标题" xfId="29"/>
+    <cellStyle name="解释性文本" xfId="30"/>
+    <cellStyle name="标题 1" xfId="31"/>
+    <cellStyle name="标题 2" xfId="32"/>
+    <cellStyle name="标题 3" xfId="33"/>
+    <cellStyle name="标题 4" xfId="34"/>
+    <cellStyle name="输入" xfId="35"/>
+    <cellStyle name="输出" xfId="36"/>
+    <cellStyle name="计算" xfId="37"/>
+    <cellStyle name="检查单元格" xfId="38"/>
+    <cellStyle name="链接单元格" xfId="39"/>
+    <cellStyle name="汇总" xfId="40"/>
+    <cellStyle name="好" xfId="41"/>
+    <cellStyle name="差" xfId="42"/>
+    <cellStyle name="适中" xfId="43"/>
+    <cellStyle name="强调文字颜色 1" xfId="44"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="45"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="46"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="47"/>
+    <cellStyle name="强调文字颜色 2" xfId="48"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="49"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="50"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="51"/>
+    <cellStyle name="强调文字颜色 3" xfId="52"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="53"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="54"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="55"/>
+    <cellStyle name="强调文字颜色 4" xfId="56"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="57"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="58"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="59"/>
+    <cellStyle name="强调文字颜色 5" xfId="60"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="61"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="62"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="63"/>
+    <cellStyle name="强调文字颜色 6" xfId="64"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="65"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="66"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="67"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1269,23 +1348,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
   <dimension ref="A1:E10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView tabSelected="1" workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelCol="4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15" outlineLevelCol="4"/>
   <cols>
-    <col min="1" max="1" width="19.2222222222222" customWidth="1"/>
-    <col min="2" max="2" width="20.1111111111111" customWidth="1"/>
-    <col min="3" max="3" width="13.8888888888889" customWidth="1"/>
-    <col min="4" max="4" width="18.5555555555556" customWidth="1"/>
-    <col min="5" max="5" width="14.7777777777778" customWidth="1"/>
+    <col min="1" max="1" width="19.25" customWidth="1"/>
+    <col min="2" max="2" width="20.125" customWidth="1"/>
+    <col min="3" max="3" width="13.875" customWidth="1"/>
+    <col min="4" max="4" width="18.5" customWidth="1"/>
+    <col min="5" max="5" width="14.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="15.6" spans="1:5">
+    <row r="1" spans="1:5" ht="15.6">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="1" t="s">
@@ -1296,7 +1374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="15.6" spans="1:5">
+    <row r="2" spans="1:5" ht="15.6">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1313,7 +1391,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" ht="15.6" spans="1:5">
+    <row r="3" spans="1:5" ht="15.6">
       <c r="A3" s="1"/>
       <c r="B3" s="7" t="s">
         <v>6</v>
@@ -1328,7 +1406,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="4" ht="15.6" spans="1:5">
+    <row r="4" spans="1:5" ht="15.6">
       <c r="A4" s="1"/>
       <c r="B4" s="11" t="s">
         <v>8</v>
@@ -1341,7 +1419,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" ht="15.6" spans="1:5">
+    <row r="5" spans="1:5" ht="15.6">
       <c r="A5" s="1"/>
       <c r="B5" s="11"/>
       <c r="C5" s="12"/>
@@ -1352,7 +1430,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" ht="15.6" spans="1:5">
+    <row r="6" spans="1:5" ht="15.6">
       <c r="A6" s="1"/>
       <c r="B6" s="15" t="s">
         <v>13</v>
@@ -1365,7 +1443,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="7" ht="15.6" spans="1:5">
+    <row r="7" spans="1:5" ht="15.6">
       <c r="A7" s="1"/>
       <c r="B7" s="15"/>
       <c r="C7" s="16"/>
@@ -1376,7 +1454,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" ht="15.6" spans="1:5">
+    <row r="8" spans="1:5" ht="15.6">
       <c r="A8" s="1"/>
       <c r="B8" s="7" t="s">
         <v>17</v>
@@ -1389,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" ht="15.6" spans="1:5">
+    <row r="9" spans="1:5" ht="15.6">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>19</v>
@@ -1402,7 +1480,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="10" ht="15.6" spans="1:5">
+    <row r="10" spans="1:5" ht="15.6">
       <c r="A10" s="1"/>
       <c r="B10" s="20" t="s">
         <v>21</v>
@@ -1417,41 +1495,36 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView workbookViewId="0" topLeftCell="A1">
+      <selection pane="topLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait"/>
-  <headerFooter/>
+  <pageSetup orientation="portrait" paperSize="9"/>
 </worksheet>
 </file>